--- a/Data_science_outputs/1500pop/output_results/output_analysis_2.xlsx
+++ b/Data_science_outputs/1500pop/output_results/output_analysis_2.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26059.14453920682</v>
+        <v>15770.8032368073</v>
       </c>
       <c r="C3" t="n">
         <v>11441.95511567473</v>
       </c>
       <c r="D3" t="n">
-        <v>11358.8407032958</v>
+        <v>1052.413686173307</v>
       </c>
       <c r="E3" t="n">
         <v>3295.342577623734</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13340.96598070849</v>
+        <v>6713.076312496934</v>
       </c>
       <c r="C4" t="n">
         <v>5952.03953989246</v>
       </c>
       <c r="D4" t="n">
-        <v>10837.13327852613</v>
+        <v>910.5042345845351</v>
       </c>
       <c r="E4" t="n">
         <v>1119.575003073298</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2176.038</v>
+        <v>2156.014</v>
       </c>
       <c r="C5" t="n">
         <v>1631.024</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13618.81</v>
+        <v>10450.019</v>
       </c>
       <c r="C6" t="n">
         <v>6290</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27163.0305</v>
+        <v>14233.034</v>
       </c>
       <c r="C7" t="n">
         <v>9904.033500000005</v>
       </c>
       <c r="D7" t="n">
-        <v>11040</v>
+        <v>1600</v>
       </c>
       <c r="E7" t="n">
         <v>3369.03</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35087.84100000009</v>
+        <v>21330.93525000014</v>
       </c>
       <c r="C8" t="n">
         <v>16323.71700000006</v>
       </c>
       <c r="D8" t="n">
-        <v>23040</v>
+        <v>1920</v>
       </c>
       <c r="E8" t="n">
         <v>4215.002</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51553.1610000002</v>
+        <v>35943.53300000009</v>
       </c>
       <c r="C9" t="n">
         <v>28154.55400000009</v>
       </c>
       <c r="D9" t="n">
-        <v>24740</v>
+        <v>5100.002</v>
       </c>
       <c r="E9" t="n">
         <v>8030.008000000001</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>13696686369.80303</v>
+        <v>8289134181.267024</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>115334907.5660005</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4376567788375396</v>
+        <v>0.7243161176691554</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>5970206673.647999</v>
+        <v>553148633.4540001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4358869373551887</v>
+        <v>0.06673177455663401</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>1732032058.799</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1264562838072716</v>
+        <v>0.2089521077742106</v>
       </c>
     </row>
   </sheetData>
